--- a/outputs/OEV/club_df_oev.xlsx
+++ b/outputs/OEV/club_df_oev.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,6 +429,2202 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/PED00066</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2013-11-15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Les Pensees III</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/PED00126</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2015-11-05</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Les Pensees III</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/ST00907</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2013-06-24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les Pensees III</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/ST00984</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2015-05-11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les Pensees III</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/ST01254</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2015-07-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les Pensees III</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/ST01651</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2014-04-09</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les Pensees III</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/PED00035</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2012-08-11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les Pensees IV</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/ST00753</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2011-08-11</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les Pensees IV</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/ST01986</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2010-06-20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les Pensees IV</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST02064</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2009-07-18</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SOUVENIR</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST03132</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2012-11-10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SOUVENIR</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST03173</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2011-05-11</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SOUVENIR</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST03480</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2010-08-05</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SOUVENIR</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PIG/HOBP/00000728</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2011-04-06</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SOUVENIR</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/00129</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2014-04-16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/00165</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2014-11-22</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/00167</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2016-01-07</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/00228</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2016-06-05</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST02065</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2011-09-14</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST02215</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2015-02-01</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST02273</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2014-08-14</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST02354</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2016-05-26</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST02501</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2016-11-18</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M24">
+        <v>11</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST03025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2015-11-26</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST03037</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2014-06-15</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M26">
+        <v>11</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST03181</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Centre Medico-Social de Ouanaminthe</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2014-03-01</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUVENIR 2 </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CAP/CALT/ST00876</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2011-09-14</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>l'avenir  de Jesus 2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/ST00279</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2008-06-24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>l'avenir  de Jesus 2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/ST00401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2012-05-10</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>l'avenir  de Jesus 2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/ST00498</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2009-12-15</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>l'avenir  de Jesus 2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Enfant 13-17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>11</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CAP/CALT/00034</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2014-08-09</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>L'avenir de Jesus 1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>11</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>11-autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/S00397</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2013-05-15</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>L'avenir de Jesus 1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/ST00334</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2014-09-13</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>L'avenir de Jesus 1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/ST00393</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2014-08-31</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>L'avenir de Jesus 1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/ST00622</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2016-12-07</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>L'avenir de Jesus 1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CAP/CSLT/ST00693</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CSL DE TERRIER ROUGE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2014-10-14</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>L'avenir de Jesus 1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Enfant 9-12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1- Present</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
